--- a/2block_HIGHT_Register.xlsx
+++ b/2block_HIGHT_Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD021929-875C-4A2D-9AFC-CCA0C6D16F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775449B-D751-42C0-ACB6-719B36F3F10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>

--- a/2block_HIGHT_Register.xlsx
+++ b/2block_HIGHT_Register.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD021929-875C-4A2D-9AFC-CCA0C6D16F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A49C12-D9D0-4D8E-A50C-0EBF228C260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eec" sheetId="1" r:id="rId1"/>
+    <sheet name="Dec" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="63">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,10 @@
   </si>
   <si>
     <t>라운드2(짝수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR비트마스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,13 +735,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
         <v>58</v>
@@ -1409,4 +1414,778 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38143FAA-3DA9-4638-ACF4-37817FFC0CB5}">
+  <dimension ref="B1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2block_HIGHT_Register.xlsx
+++ b/2block_HIGHT_Register.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775449B-D751-42C0-ACB6-719B36F3F10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A49C12-D9D0-4D8E-A50C-0EBF228C260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eec" sheetId="1" r:id="rId1"/>
+    <sheet name="Dec" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="63">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,10 @@
   </si>
   <si>
     <t>라운드2(짝수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR비트마스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1409,4 +1414,778 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38143FAA-3DA9-4638-ACF4-37817FFC0CB5}">
+  <dimension ref="B1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2block_HIGHT_Register.xlsx
+++ b/2block_HIGHT_Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Desktop\겨울학술\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\겨울학술\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A49C12-D9D0-4D8E-A50C-0EBF228C260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5D116-4ABC-40CC-9D7E-92CCFA92D526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15285" activeTab="1" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EAF06302-75F5-4846-BCCE-C0979159F773}"/>
   </bookViews>
   <sheets>
     <sheet name="Eec" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +300,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +327,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,12 +357,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,49 +692,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF72E94-D5D6-42D2-AF03-F029C6C9F8D3}">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -714,7 +754,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -731,7 +771,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
@@ -751,7 +791,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -771,7 +811,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
@@ -785,7 +825,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
@@ -802,7 +842,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -821,7 +861,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -856,7 +896,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -891,7 +931,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -926,7 +966,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -961,7 +1001,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -996,7 +1036,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -1031,7 +1071,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -1066,7 +1106,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -1101,7 +1141,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
@@ -1124,7 +1164,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
@@ -1147,7 +1187,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
@@ -1170,7 +1210,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
@@ -1207,7 +1247,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -1245,7 +1285,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -1283,7 +1323,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -1321,7 +1361,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -1359,7 +1399,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1370,7 +1410,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -1381,7 +1421,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G29" t="s">
@@ -1392,7 +1432,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1421,48 +1461,48 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1482,7 +1522,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1499,7 +1539,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -1525,7 +1565,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -1545,7 +1585,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
@@ -1559,7 +1599,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
@@ -1576,7 +1616,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1595,7 +1635,7 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -1630,7 +1670,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -1665,7 +1705,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -1700,7 +1740,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -1735,7 +1775,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -1770,7 +1810,7 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -1805,7 +1845,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
@@ -1840,7 +1880,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
@@ -1875,7 +1915,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
@@ -1898,7 +1938,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
@@ -1921,7 +1961,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
@@ -1944,7 +1984,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
@@ -1981,7 +2021,7 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
@@ -2019,7 +2059,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
@@ -2057,7 +2097,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
@@ -2095,7 +2135,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -2133,7 +2173,7 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -2144,7 +2184,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -2155,7 +2195,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G29" t="s">
@@ -2166,7 +2206,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
     </row>
